--- a/deployment/Omaha_Cal_Info_CP04OSSM_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CP04OSSM_00001.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="11145" yWindow="8400" windowWidth="20730" windowHeight="11760" tabRatio="766" activeTab="1"/>
   </bookViews>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="234">
   <si>
     <t>Ref Des</t>
   </si>
@@ -75,9 +80,6 @@
   </si>
   <si>
     <t>Calibration Cofficient Value</t>
-  </si>
-  <si>
-    <t>CP04OSSM-SBD11-01-MOPAKO000</t>
   </si>
   <si>
     <t>This is a bogus serial number; no Calibration Coefficient</t>
@@ -527,9 +529,6 @@
     <t>CC_eb620</t>
   </si>
   <si>
-    <t>No unit on this deployment</t>
-  </si>
-  <si>
     <t>CP04OSSM-SBC11-00-CPMENG000</t>
   </si>
   <si>
@@ -694,6 +693,45 @@
   <si>
     <t>N00753</t>
   </si>
+  <si>
+    <t>CP04OSSM-SBD11-01-MOPAK0000</t>
+  </si>
+  <si>
+    <t>OL000527</t>
+  </si>
+  <si>
+    <t>OL000528</t>
+  </si>
+  <si>
+    <t>OL000529</t>
+  </si>
+  <si>
+    <t>OL000530</t>
+  </si>
+  <si>
+    <t>OL000531</t>
+  </si>
+  <si>
+    <t>OL000532</t>
+  </si>
+  <si>
+    <t>OL000533</t>
+  </si>
+  <si>
+    <t>OL000534</t>
+  </si>
+  <si>
+    <t>OL000535</t>
+  </si>
+  <si>
+    <t>OL000536</t>
+  </si>
+  <si>
+    <t>OL000537</t>
+  </si>
+  <si>
+    <t>OL000538</t>
+  </si>
 </sst>
 </file>
 
@@ -703,7 +741,7 @@
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1372,10 +1410,10 @@
   <dimension ref="A1:AML2"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
@@ -1390,9 +1428,9 @@
     <col min="13" max="1026" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="38.25">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>0</v>
@@ -1428,9 +1466,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>11</v>
@@ -1451,16 +1489,16 @@
         <v>42134</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J2" s="12">
         <v>455</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L2" s="17"/>
       <c r="M2" s="29">
@@ -1487,13 +1525,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMM189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7:E15"/>
+      <selection pane="bottomLeft" activeCell="O176" sqref="N176:O176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.42578125" style="18" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="18" customWidth="1"/>
@@ -1502,17 +1540,17 @@
     <col min="5" max="5" width="11.7109375" style="18" customWidth="1"/>
     <col min="6" max="6" width="19" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="45.42578125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="43.42578125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="18" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="18" customWidth="1"/>
     <col min="10" max="1027" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1026" s="19" customFormat="1" ht="38.25">
+    <row r="1" spans="1:1026" s="19" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>13</v>
@@ -1521,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>14</v>
@@ -1536,7 +1574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1026">
+    <row r="2" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -2564,12 +2602,12 @@
       <c r="AMK2"/>
       <c r="AML2"/>
     </row>
-    <row r="3" spans="1:1026">
+    <row r="3" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>17</v>
+        <v>221</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>12</v>
@@ -2577,13 +2615,16 @@
       <c r="D3" s="18">
         <v>1</v>
       </c>
+      <c r="E3" t="s">
+        <v>222</v>
+      </c>
       <c r="F3" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
@@ -3603,7 +3644,7 @@
       <c r="AMK3"/>
       <c r="AML3"/>
     </row>
-    <row r="4" spans="1:1026">
+    <row r="4" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -4631,12 +4672,12 @@
       <c r="AMK4"/>
       <c r="AML4"/>
     </row>
-    <row r="5" spans="1:1026" s="3" customFormat="1">
+    <row r="5" spans="1:1026" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>12</v>
@@ -4644,22 +4685,30 @@
       <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" t="s">
+        <v>223</v>
+      </c>
       <c r="F5" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>190</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="K5"/>
+      <c r="P5"/>
     </row>
-    <row r="7" spans="1:1026">
+    <row r="6" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="K6"/>
+      <c r="P6"/>
+    </row>
+    <row r="7" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>12</v>
@@ -4668,13 +4717,13 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>20</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>21</v>
       </c>
       <c r="H7" s="18">
         <v>39.936168333333299</v>
@@ -5698,12 +5747,12 @@
       <c r="AMK7"/>
       <c r="AML7"/>
     </row>
-    <row r="8" spans="1:1026">
+    <row r="8" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>12</v>
@@ -5712,13 +5761,13 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" s="18">
         <v>-70.880300000000005</v>
@@ -6742,12 +6791,12 @@
       <c r="AMK8"/>
       <c r="AML8"/>
     </row>
-    <row r="9" spans="1:1026">
+    <row r="9" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>12</v>
@@ -6756,13 +6805,13 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="18">
         <v>1.0668</v>
@@ -7786,12 +7835,12 @@
       <c r="AMK9"/>
       <c r="AML9"/>
     </row>
-    <row r="10" spans="1:1026">
+    <row r="10" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>12</v>
@@ -7800,13 +7849,13 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" s="18">
         <v>4.2926000000000002</v>
@@ -8830,12 +8879,12 @@
       <c r="AMK10"/>
       <c r="AML10"/>
     </row>
-    <row r="11" spans="1:1026">
+    <row r="11" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>12</v>
@@ -8844,13 +8893,13 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="18">
         <v>4.2926000000000002</v>
@@ -9874,12 +9923,12 @@
       <c r="AMK11"/>
       <c r="AML11"/>
     </row>
-    <row r="12" spans="1:1026">
+    <row r="12" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>12</v>
@@ -9888,13 +9937,13 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" s="18">
         <v>4.7497999999999996</v>
@@ -10918,12 +10967,12 @@
       <c r="AMK12"/>
       <c r="AML12"/>
     </row>
-    <row r="13" spans="1:1026">
+    <row r="13" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>12</v>
@@ -10932,19 +10981,19 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" s="18">
         <v>1</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
@@ -11964,12 +12013,12 @@
       <c r="AMK13"/>
       <c r="AML13"/>
     </row>
-    <row r="14" spans="1:1026">
+    <row r="14" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>12</v>
@@ -11978,19 +12027,19 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H14" s="18">
         <v>1</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
@@ -13010,12 +13059,12 @@
       <c r="AMK14"/>
       <c r="AML14"/>
     </row>
-    <row r="15" spans="1:1026">
+    <row r="15" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>12</v>
@@ -13024,19 +13073,19 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15" s="18">
         <v>600</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J15"/>
       <c r="K15"/>
@@ -14056,7 +14105,7 @@
       <c r="AMK15"/>
       <c r="AML15"/>
     </row>
-    <row r="16" spans="1:1026">
+    <row r="16" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -15084,12 +15133,12 @@
       <c r="AMK16"/>
       <c r="AML16"/>
     </row>
-    <row r="17" spans="1:1026" s="3" customFormat="1">
+    <row r="17" spans="1:1026" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>12</v>
@@ -15097,22 +15146,30 @@
       <c r="D17" s="4">
         <v>1</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" t="s">
+        <v>224</v>
+      </c>
       <c r="F17" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4" t="s">
-        <v>190</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="K17"/>
+      <c r="P17"/>
     </row>
-    <row r="19" spans="1:1026">
+    <row r="18" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="K18"/>
+      <c r="P18"/>
+    </row>
+    <row r="19" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>12</v>
@@ -15121,15 +15178,15 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J19"/>
       <c r="K19"/>
@@ -16149,7 +16206,7 @@
       <c r="AMK19"/>
       <c r="AML19"/>
     </row>
-    <row r="20" spans="1:1026">
+    <row r="20" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -17177,12 +17234,12 @@
       <c r="AMK20"/>
       <c r="AML20"/>
     </row>
-    <row r="21" spans="1:1026">
+    <row r="21" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>12</v>
@@ -17191,13 +17248,13 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H21" s="18">
         <v>39.936168333333299</v>
@@ -18221,12 +18278,12 @@
       <c r="AMK21"/>
       <c r="AML21"/>
     </row>
-    <row r="22" spans="1:1026">
+    <row r="22" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>12</v>
@@ -18235,13 +18292,13 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H22" s="18">
         <v>-70.880300000000005</v>
@@ -19265,7 +19322,7 @@
       <c r="AMK22"/>
       <c r="AML22"/>
     </row>
-    <row r="23" spans="1:1026">
+    <row r="23" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -20293,12 +20350,12 @@
       <c r="AMK23"/>
       <c r="AML23"/>
     </row>
-    <row r="24" spans="1:1026">
+    <row r="24" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>12</v>
@@ -20307,13 +20364,13 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H24" s="18">
         <v>39.936168333333299</v>
@@ -21337,12 +21394,12 @@
       <c r="AMK24"/>
       <c r="AML24"/>
     </row>
-    <row r="25" spans="1:1026">
+    <row r="25" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>12</v>
@@ -21351,13 +21408,13 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H25" s="18">
         <v>-70.880300000000005</v>
@@ -22381,7 +22438,7 @@
       <c r="AMK25"/>
       <c r="AML25"/>
     </row>
-    <row r="26" spans="1:1026">
+    <row r="26" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -23409,12 +23466,12 @@
       <c r="AMK26"/>
       <c r="AML26"/>
     </row>
-    <row r="27" spans="1:1026">
+    <row r="27" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>12</v>
@@ -23423,13 +23480,13 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F27" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>40</v>
       </c>
       <c r="H27" s="18">
         <v>17533</v>
@@ -24453,12 +24510,12 @@
       <c r="AMK27"/>
       <c r="AML27"/>
     </row>
-    <row r="28" spans="1:1026">
+    <row r="28" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>12</v>
@@ -24467,13 +24524,13 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H28" s="18">
         <v>101</v>
@@ -25497,12 +25554,12 @@
       <c r="AMK28"/>
       <c r="AML28"/>
     </row>
-    <row r="29" spans="1:1026">
+    <row r="29" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>12</v>
@@ -25511,13 +25568,13 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H29" s="18">
         <v>2229</v>
@@ -26541,12 +26598,12 @@
       <c r="AMK29"/>
       <c r="AML29"/>
     </row>
-    <row r="30" spans="1:1026">
+    <row r="30" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>12</v>
@@ -26555,13 +26612,13 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H30" s="18">
         <v>38502</v>
@@ -27585,12 +27642,12 @@
       <c r="AMK30"/>
       <c r="AML30"/>
     </row>
-    <row r="31" spans="1:1026">
+    <row r="31" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>12</v>
@@ -27599,13 +27656,13 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H31" s="23">
         <v>0</v>
@@ -28629,12 +28686,12 @@
       <c r="AMK31"/>
       <c r="AML31"/>
     </row>
-    <row r="32" spans="1:1026">
+    <row r="32" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>12</v>
@@ -28643,13 +28700,13 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H32" s="23">
         <v>1</v>
@@ -29673,12 +29730,12 @@
       <c r="AMK32"/>
       <c r="AML32"/>
     </row>
-    <row r="33" spans="1:1026">
+    <row r="33" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>12</v>
@@ -29687,21 +29744,22 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" s="18">
         <v>35</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J33"/>
+      <c r="K33"/>
       <c r="L33"/>
       <c r="M33"/>
       <c r="N33"/>
@@ -30718,7 +30776,7 @@
       <c r="AMK33"/>
       <c r="AML33"/>
     </row>
-    <row r="34" spans="1:1026">
+    <row r="34" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -30729,6 +30787,7 @@
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
+      <c r="K34"/>
       <c r="L34"/>
       <c r="M34"/>
       <c r="N34"/>
@@ -31745,12 +31804,12 @@
       <c r="AMK34"/>
       <c r="AML34"/>
     </row>
-    <row r="35" spans="1:1026">
+    <row r="35" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>12</v>
@@ -31759,19 +31818,20 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H35" s="18">
         <v>17533</v>
       </c>
       <c r="I35"/>
       <c r="J35"/>
+      <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
       <c r="N35"/>
@@ -32788,12 +32848,12 @@
       <c r="AMK35"/>
       <c r="AML35"/>
     </row>
-    <row r="36" spans="1:1026">
+    <row r="36" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>12</v>
@@ -32802,19 +32862,20 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H36" s="18">
         <v>101</v>
       </c>
       <c r="I36"/>
       <c r="J36"/>
+      <c r="K36"/>
       <c r="L36"/>
       <c r="M36"/>
       <c r="N36"/>
@@ -33831,12 +33892,12 @@
       <c r="AMK36"/>
       <c r="AML36"/>
     </row>
-    <row r="37" spans="1:1026">
+    <row r="37" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>12</v>
@@ -33845,19 +33906,20 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H37" s="18">
         <v>2229</v>
       </c>
       <c r="I37"/>
       <c r="J37"/>
+      <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
       <c r="N37"/>
@@ -34874,12 +34936,12 @@
       <c r="AMK37"/>
       <c r="AML37"/>
     </row>
-    <row r="38" spans="1:1026">
+    <row r="38" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>12</v>
@@ -34888,19 +34950,20 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H38" s="18">
         <v>38502</v>
       </c>
       <c r="I38"/>
       <c r="J38"/>
+      <c r="K38"/>
       <c r="L38"/>
       <c r="M38"/>
       <c r="N38"/>
@@ -35917,12 +35980,12 @@
       <c r="AMK38"/>
       <c r="AML38"/>
     </row>
-    <row r="39" spans="1:1026">
+    <row r="39" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>12</v>
@@ -35931,19 +35994,20 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H39" s="23">
         <v>0</v>
       </c>
       <c r="I39"/>
       <c r="J39"/>
+      <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
       <c r="N39"/>
@@ -36960,12 +37024,12 @@
       <c r="AMK39"/>
       <c r="AML39"/>
     </row>
-    <row r="40" spans="1:1026">
+    <row r="40" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>12</v>
@@ -36974,19 +37038,20 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H40" s="23">
         <v>1</v>
       </c>
       <c r="I40"/>
       <c r="J40"/>
+      <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
       <c r="N40"/>
@@ -38003,12 +38068,12 @@
       <c r="AMK40"/>
       <c r="AML40"/>
     </row>
-    <row r="41" spans="1:1026">
+    <row r="41" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>12</v>
@@ -38017,21 +38082,22 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" s="18">
         <v>35</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J41"/>
+      <c r="K41"/>
       <c r="L41"/>
       <c r="M41"/>
       <c r="N41"/>
@@ -39048,7 +39114,7 @@
       <c r="AMK41"/>
       <c r="AML41"/>
     </row>
-    <row r="42" spans="1:1026">
+    <row r="42" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -39059,6 +39125,7 @@
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
+      <c r="K42"/>
       <c r="L42"/>
       <c r="M42"/>
       <c r="N42"/>
@@ -40075,12 +40142,12 @@
       <c r="AMK42"/>
       <c r="AML42"/>
     </row>
-    <row r="43" spans="1:1026">
+    <row r="43" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>12</v>
@@ -40089,19 +40156,20 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F43" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G43" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" s="18" t="s">
         <v>50</v>
-      </c>
-      <c r="H43" s="18" t="s">
-        <v>51</v>
       </c>
       <c r="I43"/>
       <c r="J43"/>
+      <c r="K43"/>
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43"/>
@@ -41118,12 +41186,12 @@
       <c r="AMK43"/>
       <c r="AML43"/>
     </row>
-    <row r="44" spans="1:1026">
+    <row r="44" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>12</v>
@@ -41132,19 +41200,20 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F44" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G44" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H44" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>53</v>
       </c>
       <c r="I44"/>
       <c r="J44"/>
+      <c r="K44"/>
       <c r="L44"/>
       <c r="M44"/>
       <c r="N44"/>
@@ -42161,12 +42230,12 @@
       <c r="AMK44"/>
       <c r="AML44"/>
     </row>
-    <row r="45" spans="1:1026">
+    <row r="45" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>12</v>
@@ -42175,19 +42244,20 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F45" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H45" s="18">
         <v>15.6</v>
       </c>
       <c r="I45"/>
       <c r="J45"/>
+      <c r="K45"/>
       <c r="L45"/>
       <c r="M45"/>
       <c r="N45"/>
@@ -43204,12 +43274,12 @@
       <c r="AMK45"/>
       <c r="AML45"/>
     </row>
-    <row r="46" spans="1:1026">
+    <row r="46" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>12</v>
@@ -43218,19 +43288,20 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F46" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G46" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H46" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>56</v>
       </c>
       <c r="I46"/>
       <c r="J46"/>
+      <c r="K46"/>
       <c r="L46"/>
       <c r="M46"/>
       <c r="N46"/>
@@ -44247,12 +44318,12 @@
       <c r="AMK46"/>
       <c r="AML46"/>
     </row>
-    <row r="47" spans="1:1026">
+    <row r="47" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>12</v>
@@ -44261,19 +44332,20 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F47" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G47" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="18" t="s">
         <v>57</v>
-      </c>
-      <c r="H47" s="18" t="s">
-        <v>58</v>
       </c>
       <c r="I47"/>
       <c r="J47"/>
+      <c r="K47"/>
       <c r="L47"/>
       <c r="M47"/>
       <c r="N47"/>
@@ -45290,12 +45362,12 @@
       <c r="AMK47"/>
       <c r="AML47"/>
     </row>
-    <row r="48" spans="1:1026">
+    <row r="48" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>12</v>
@@ -45304,16 +45376,16 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F48" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G48" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H48" s="18" t="s">
         <v>59</v>
-      </c>
-      <c r="H48" s="18" t="s">
-        <v>60</v>
       </c>
       <c r="I48"/>
       <c r="J48"/>
@@ -46334,12 +46406,12 @@
       <c r="AMK48"/>
       <c r="AML48"/>
     </row>
-    <row r="49" spans="1:1026">
+    <row r="49" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>12</v>
@@ -46348,16 +46420,16 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F49" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G49" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H49" s="18" t="s">
         <v>61</v>
-      </c>
-      <c r="H49" s="18" t="s">
-        <v>62</v>
       </c>
       <c r="I49"/>
       <c r="J49"/>
@@ -47378,12 +47450,12 @@
       <c r="AMK49"/>
       <c r="AML49"/>
     </row>
-    <row r="50" spans="1:1026" s="24" customFormat="1">
+    <row r="50" spans="1:1026" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C50" s="24" t="s">
         <v>12</v>
@@ -47392,19 +47464,20 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F50" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G50" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H50" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="H50" s="24" t="s">
-        <v>64</v>
-      </c>
+      <c r="K50"/>
     </row>
-    <row r="51" spans="1:1026">
+    <row r="51" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -47414,13 +47487,14 @@
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
+      <c r="K51"/>
     </row>
-    <row r="52" spans="1:1026">
+    <row r="52" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>12</v>
@@ -47429,25 +47503,26 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F52" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I52"/>
+      <c r="K52"/>
     </row>
-    <row r="53" spans="1:1026">
+    <row r="53" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>12</v>
@@ -47456,25 +47531,26 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F53" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I53"/>
+      <c r="K53"/>
     </row>
-    <row r="54" spans="1:1026">
+    <row r="54" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>12</v>
@@ -47483,25 +47559,26 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F54" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H54" s="18">
         <v>20.399999999999999</v>
       </c>
       <c r="I54"/>
+      <c r="K54"/>
     </row>
-    <row r="55" spans="1:1026">
+    <row r="55" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>12</v>
@@ -47510,25 +47587,26 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F55" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I55"/>
+      <c r="K55"/>
     </row>
-    <row r="56" spans="1:1026">
+    <row r="56" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>12</v>
@@ -47537,25 +47615,26 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F56" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I56"/>
+      <c r="K56"/>
     </row>
-    <row r="57" spans="1:1026">
+    <row r="57" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>12</v>
@@ -47564,25 +47643,26 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F57" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I57"/>
+      <c r="K57"/>
     </row>
-    <row r="58" spans="1:1026">
+    <row r="58" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>12</v>
@@ -47591,25 +47671,26 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F58" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I58"/>
+      <c r="K58"/>
     </row>
-    <row r="59" spans="1:1026">
+    <row r="59" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>12</v>
@@ -47618,20 +47699,21 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F59" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I59"/>
+      <c r="K59"/>
     </row>
-    <row r="60" spans="1:1026">
+    <row r="60" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -47641,13 +47723,14 @@
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60"/>
+      <c r="K60"/>
     </row>
-    <row r="61" spans="1:1026">
+    <row r="61" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>12</v>
@@ -47656,25 +47739,26 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F61" s="18">
         <v>1221</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H61" s="18">
         <v>51</v>
       </c>
       <c r="I61"/>
+      <c r="K61"/>
     </row>
-    <row r="62" spans="1:1026">
+    <row r="62" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>12</v>
@@ -47683,25 +47767,26 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F62" s="18">
         <v>1221</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H62" s="18">
         <v>1.885E-6</v>
       </c>
       <c r="I62"/>
+      <c r="K62"/>
     </row>
-    <row r="63" spans="1:1026">
+    <row r="63" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C63" s="18" t="s">
         <v>12</v>
@@ -47710,25 +47795,26 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F63" s="18">
         <v>1221</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H63" s="18">
         <v>53</v>
       </c>
       <c r="I63"/>
+      <c r="K63"/>
     </row>
-    <row r="64" spans="1:1026">
+    <row r="64" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>12</v>
@@ -47737,25 +47823,26 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F64" s="18">
         <v>1221</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H64" s="18">
         <v>1.2200000000000001E-2</v>
       </c>
       <c r="I64"/>
+      <c r="K64"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C65" s="18" t="s">
         <v>12</v>
@@ -47764,25 +47851,26 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F65" s="18">
         <v>1221</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H65" s="18">
         <v>43</v>
       </c>
       <c r="I65"/>
+      <c r="K65"/>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>12</v>
@@ -47791,25 +47879,26 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F66" s="18">
         <v>1221</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H66" s="18">
         <v>9.06E-2</v>
       </c>
       <c r="I66"/>
+      <c r="K66"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C67" s="18" t="s">
         <v>12</v>
@@ -47818,27 +47907,28 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F67" s="18">
         <v>1221</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H67" s="2">
         <v>124</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>28</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="K67"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>12</v>
@@ -47847,27 +47937,28 @@
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F68" s="18">
         <v>1221</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="18">
         <v>700</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>28</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="K68"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C69" s="18" t="s">
         <v>12</v>
@@ -47876,27 +47967,28 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F69" s="18">
         <v>1221</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H69" s="2">
         <v>1.0760000000000001</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>28</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="K69"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C70" s="18" t="s">
         <v>12</v>
@@ -47905,22 +47997,23 @@
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F70" s="18">
         <v>1221</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H70" s="18">
         <v>3.9E-2</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>28</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="K70"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -47930,13 +48023,14 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71"/>
+      <c r="K71"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>12</v>
@@ -47945,25 +48039,26 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H72" s="18">
         <v>39.936168333333299</v>
       </c>
       <c r="I72"/>
+      <c r="K72"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B73" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>12</v>
@@ -47972,25 +48067,26 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H73" s="18">
         <v>-70.880300000000005</v>
       </c>
       <c r="I73"/>
+      <c r="K73"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C74" s="18" t="s">
         <v>12</v>
@@ -47999,25 +48095,26 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F74" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G74" s="18" t="s">
         <v>85</v>
-      </c>
-      <c r="G74" s="18" t="s">
-        <v>86</v>
       </c>
       <c r="H74" s="18">
         <v>1.2973279999999999E-3</v>
       </c>
       <c r="I74"/>
+      <c r="K74"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C75" s="18" t="s">
         <v>12</v>
@@ -48026,25 +48123,26 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H75" s="18">
         <v>2.6433119999999999E-4</v>
       </c>
       <c r="I75"/>
+      <c r="K75"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>12</v>
@@ -48053,25 +48151,26 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H76" s="18">
         <v>-2.291603E-7</v>
       </c>
       <c r="I76"/>
+      <c r="K76"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>12</v>
@@ -48080,25 +48179,26 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H77" s="18">
         <v>1.4572499999999999E-7</v>
       </c>
       <c r="I77"/>
+      <c r="K77"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C78" s="18" t="s">
         <v>12</v>
@@ -48107,25 +48207,26 @@
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H78" s="18">
         <v>-73.518230000000003</v>
       </c>
       <c r="I78"/>
+      <c r="K78"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>12</v>
@@ -48134,25 +48235,26 @@
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H79" s="18">
         <v>49.406379999999999</v>
       </c>
       <c r="I79"/>
+      <c r="K79"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>12</v>
@@ -48161,25 +48263,26 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H80" s="18">
         <v>-0.16068489999999999</v>
       </c>
       <c r="I80"/>
+      <c r="K80"/>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>12</v>
@@ -48188,25 +48291,26 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G81" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H81" s="18">
         <v>524404.69999999995</v>
       </c>
       <c r="I81"/>
+      <c r="K81"/>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C82" s="18" t="s">
         <v>12</v>
@@ -48215,25 +48319,26 @@
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H82" s="18">
         <v>56.835209999999996</v>
       </c>
       <c r="I82"/>
+      <c r="K82"/>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>12</v>
@@ -48242,25 +48347,26 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H83" s="18">
         <v>-0.91127760000000002</v>
       </c>
       <c r="I83"/>
+      <c r="K83"/>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C84" s="18" t="s">
         <v>12</v>
@@ -48269,25 +48375,26 @@
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G84" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H84" s="18">
         <v>25.02037</v>
       </c>
       <c r="I84"/>
+      <c r="K84"/>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C85" s="18" t="s">
         <v>12</v>
@@ -48296,25 +48403,26 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H85" s="18">
         <v>-3.2499999999999999E-4</v>
       </c>
       <c r="I85"/>
+      <c r="K85"/>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C86" s="18" t="s">
         <v>12</v>
@@ -48323,25 +48431,26 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G86" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H86" s="18">
         <v>0</v>
       </c>
       <c r="I86"/>
+      <c r="K86"/>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>12</v>
@@ -48350,25 +48459,26 @@
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G87" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H87" s="18">
         <v>2.1247859999999998</v>
       </c>
       <c r="I87"/>
+      <c r="K87"/>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B88" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C88" s="18" t="s">
         <v>12</v>
@@ -48377,25 +48487,26 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H88" s="18">
         <v>2.6538740000000001E-3</v>
       </c>
       <c r="I88"/>
+      <c r="K88"/>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B89" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C89" s="18" t="s">
         <v>12</v>
@@ -48404,25 +48515,26 @@
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G89" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H89" s="18">
         <v>2.1527289999999998E-11</v>
       </c>
       <c r="I89"/>
+      <c r="K89"/>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B90" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C90" s="18" t="s">
         <v>12</v>
@@ -48431,25 +48543,26 @@
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G90" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H90" s="18">
         <v>-0.98760110000000001</v>
       </c>
       <c r="I90"/>
+      <c r="K90"/>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B91" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C91" s="18" t="s">
         <v>12</v>
@@ -48458,25 +48571,26 @@
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H91" s="18">
         <v>0.13941419999999999</v>
       </c>
       <c r="I91"/>
+      <c r="K91"/>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B92" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C92" s="18" t="s">
         <v>12</v>
@@ -48485,25 +48599,26 @@
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G92" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H92" s="18">
         <v>-1.5121089999999999E-4</v>
       </c>
       <c r="I92"/>
+      <c r="K92"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B93" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C93" s="18" t="s">
         <v>12</v>
@@ -48512,25 +48627,26 @@
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H93" s="18">
         <v>2.960967E-5</v>
       </c>
       <c r="I93"/>
+      <c r="K93"/>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B94" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C94" s="18" t="s">
         <v>12</v>
@@ -48539,25 +48655,26 @@
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G94" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H94" s="18">
         <v>-9.5700000000000003E-8</v>
       </c>
       <c r="I94"/>
+      <c r="K94"/>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B95" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C95" s="18" t="s">
         <v>12</v>
@@ -48566,20 +48683,21 @@
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G95" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H95" s="18">
         <v>3.2499999999999998E-6</v>
       </c>
       <c r="I95"/>
+      <c r="K95"/>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -48589,13 +48707,14 @@
       <c r="G96"/>
       <c r="H96"/>
       <c r="I96"/>
+      <c r="K96"/>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B97" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C97" s="18" t="s">
         <v>12</v>
@@ -48604,25 +48723,26 @@
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G97" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H97" s="18">
         <v>39.936168333333299</v>
       </c>
       <c r="I97"/>
+      <c r="K97"/>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B98" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C98" s="18" t="s">
         <v>12</v>
@@ -48631,25 +48751,26 @@
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G98" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H98" s="18">
         <v>-70.880300000000005</v>
       </c>
       <c r="I98"/>
+      <c r="K98"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B99" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C99" s="18" t="s">
         <v>12</v>
@@ -48658,25 +48779,26 @@
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G99" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H99" s="18">
         <v>1.2722810000000001E-3</v>
       </c>
       <c r="I99"/>
+      <c r="K99"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C100" s="18" t="s">
         <v>12</v>
@@ -48685,25 +48807,26 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H100" s="18">
         <v>2.6976289999999998E-4</v>
       </c>
       <c r="I100"/>
+      <c r="K100"/>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C101" s="18" t="s">
         <v>12</v>
@@ -48712,25 +48835,26 @@
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G101" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H101" s="18">
         <v>-6.9859800000000002E-7</v>
       </c>
       <c r="I101"/>
+      <c r="K101"/>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C102" s="18" t="s">
         <v>12</v>
@@ -48739,25 +48863,26 @@
         <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G102" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H102" s="18">
         <v>1.637459E-7</v>
       </c>
       <c r="I102"/>
+      <c r="K102"/>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C103" s="18" t="s">
         <v>12</v>
@@ -48766,25 +48891,26 @@
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H103" s="18">
         <v>-60.193890000000003</v>
       </c>
       <c r="I103"/>
+      <c r="K103"/>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C104" s="18" t="s">
         <v>12</v>
@@ -48793,25 +48919,26 @@
         <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G104" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H104" s="18">
         <v>53.882710000000003</v>
       </c>
       <c r="I104"/>
+      <c r="K104"/>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C105" s="18" t="s">
         <v>12</v>
@@ -48820,25 +48947,26 @@
         <v>1</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G105" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H105" s="18">
         <v>-0.26460709999999998</v>
       </c>
       <c r="I105"/>
+      <c r="K105"/>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C106" s="18" t="s">
         <v>12</v>
@@ -48847,25 +48975,26 @@
         <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G106" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H106" s="18">
         <v>525191.5</v>
       </c>
       <c r="I106"/>
+      <c r="K106"/>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C107" s="18" t="s">
         <v>12</v>
@@ -48874,25 +49003,26 @@
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G107" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H107" s="18">
         <v>7.2010540000000001</v>
       </c>
       <c r="I107"/>
+      <c r="K107"/>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C108" s="18" t="s">
         <v>12</v>
@@ -48901,25 +49031,26 @@
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G108" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H108" s="18">
         <v>-0.1738104</v>
       </c>
       <c r="I108"/>
+      <c r="K108"/>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C109" s="18" t="s">
         <v>12</v>
@@ -48928,25 +49059,26 @@
         <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G109" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H109" s="18">
         <v>25.0425</v>
       </c>
       <c r="I109"/>
+      <c r="K109"/>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C110" s="18" t="s">
         <v>12</v>
@@ -48955,25 +49087,26 @@
         <v>1</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G110" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H110" s="18">
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="I110"/>
+      <c r="K110"/>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B111" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C111" s="18" t="s">
         <v>12</v>
@@ -48982,25 +49115,26 @@
         <v>1</v>
       </c>
       <c r="E111" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G111" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H111" s="18">
         <v>0</v>
       </c>
       <c r="I111"/>
+      <c r="K111"/>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B112" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C112" s="18" t="s">
         <v>12</v>
@@ -49009,25 +49143,26 @@
         <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G112" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H112" s="18">
         <v>3.4810920000000002E-2</v>
       </c>
       <c r="I112"/>
+      <c r="K112"/>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B113" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C113" s="18" t="s">
         <v>12</v>
@@ -49036,25 +49171,26 @@
         <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G113" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H113" s="18">
         <v>4.8898240000000003E-4</v>
       </c>
       <c r="I113"/>
+      <c r="K113"/>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B114" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C114" s="18" t="s">
         <v>12</v>
@@ -49063,25 +49199,26 @@
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F114" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G114" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H114" s="18">
         <v>-5.6532059999999996E-12</v>
       </c>
       <c r="I114"/>
+      <c r="K114"/>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B115" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C115" s="18" t="s">
         <v>12</v>
@@ -49090,25 +49227,26 @@
         <v>1</v>
       </c>
       <c r="E115" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G115" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H115" s="18">
         <v>-0.97569399999999995</v>
       </c>
       <c r="I115"/>
+      <c r="K115"/>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B116" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C116" s="18" t="s">
         <v>12</v>
@@ -49117,25 +49255,26 @@
         <v>1</v>
       </c>
       <c r="E116" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G116" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H116" s="18">
         <v>0.1386474</v>
       </c>
       <c r="I116"/>
+      <c r="K116"/>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B117" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C117" s="18" t="s">
         <v>12</v>
@@ -49144,25 +49283,26 @@
         <v>1</v>
       </c>
       <c r="E117" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G117" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H117" s="18">
         <v>-2.079451E-4</v>
       </c>
       <c r="I117"/>
+      <c r="K117"/>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B118" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C118" s="18" t="s">
         <v>12</v>
@@ -49171,25 +49311,26 @@
         <v>1</v>
       </c>
       <c r="E118" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G118" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H118" s="18">
         <v>3.414133E-5</v>
       </c>
       <c r="I118"/>
+      <c r="K118"/>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B119" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C119" s="18" t="s">
         <v>12</v>
@@ -49198,25 +49339,26 @@
         <v>1</v>
       </c>
       <c r="E119" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F119" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G119" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H119" s="18">
         <v>-9.5700000000000003E-8</v>
       </c>
       <c r="I119"/>
+      <c r="K119"/>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B120" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C120" s="18" t="s">
         <v>12</v>
@@ -49225,20 +49367,21 @@
         <v>1</v>
       </c>
       <c r="E120" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G120" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H120" s="18">
         <v>3.2499999999999998E-6</v>
       </c>
       <c r="I120"/>
+      <c r="K120"/>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -49248,13 +49391,14 @@
       <c r="G121"/>
       <c r="H121"/>
       <c r="I121"/>
+      <c r="K121"/>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B122" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C122" s="18" t="s">
         <v>12</v>
@@ -49263,25 +49407,26 @@
         <v>1</v>
       </c>
       <c r="E122" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F122" s="18">
         <v>375</v>
       </c>
       <c r="G122" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H122" s="18">
         <v>39.936168333333299</v>
       </c>
       <c r="I122"/>
+      <c r="K122"/>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B123" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C123" s="18" t="s">
         <v>12</v>
@@ -49290,25 +49435,26 @@
         <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F123" s="18">
         <v>375</v>
       </c>
       <c r="G123" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H123" s="18">
         <v>-70.880300000000005</v>
       </c>
       <c r="I123"/>
+      <c r="K123"/>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B124" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C124" s="18" t="s">
         <v>12</v>
@@ -49317,20 +49463,21 @@
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F124" s="18">
         <v>375</v>
       </c>
       <c r="G124" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H124" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="H124" s="18" t="s">
-        <v>112</v>
-      </c>
       <c r="I124"/>
+      <c r="K124"/>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -49340,13 +49487,14 @@
       <c r="G125"/>
       <c r="H125"/>
       <c r="I125"/>
+      <c r="K125"/>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B126" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C126" s="18" t="s">
         <v>12</v>
@@ -49355,25 +49503,26 @@
         <v>1</v>
       </c>
       <c r="E126" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F126" s="18">
         <v>376</v>
       </c>
       <c r="G126" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H126" s="18">
         <v>39.936168333333299</v>
       </c>
       <c r="I126"/>
+      <c r="K126"/>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B127" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C127" s="18" t="s">
         <v>12</v>
@@ -49382,25 +49531,26 @@
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F127" s="18">
         <v>376</v>
       </c>
       <c r="G127" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H127" s="18">
         <v>-70.880300000000005</v>
       </c>
       <c r="I127"/>
+      <c r="K127"/>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B128" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C128" s="18" t="s">
         <v>12</v>
@@ -49409,20 +49559,21 @@
         <v>1</v>
       </c>
       <c r="E128" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F128" s="18">
         <v>376</v>
       </c>
       <c r="G128" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H128" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I128"/>
+      <c r="K128"/>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -49432,13 +49583,14 @@
       <c r="G129"/>
       <c r="H129"/>
       <c r="I129"/>
+      <c r="K129"/>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B130" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C130" s="18" t="s">
         <v>12</v>
@@ -49447,27 +49599,28 @@
         <v>1</v>
       </c>
       <c r="E130" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F130" s="18">
         <v>266</v>
       </c>
       <c r="G130" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H130" s="18">
         <v>217</v>
       </c>
       <c r="I130" s="18" t="s">
-        <v>28</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="K130"/>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B131" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C131" s="18" t="s">
         <v>12</v>
@@ -49476,27 +49629,28 @@
         <v>1</v>
       </c>
       <c r="E131" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F131" s="18">
         <v>266</v>
       </c>
       <c r="G131" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H131" s="18">
         <v>240</v>
       </c>
       <c r="I131" s="18" t="s">
-        <v>28</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="K131"/>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B132" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C132" s="18" t="s">
         <v>12</v>
@@ -49505,25 +49659,26 @@
         <v>1</v>
       </c>
       <c r="E132" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F132" s="18">
         <v>266</v>
       </c>
       <c r="G132" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H132" s="18">
         <v>19.95</v>
       </c>
       <c r="I132"/>
+      <c r="K132"/>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B133" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C133" s="18" t="s">
         <v>12</v>
@@ -49532,25 +49687,26 @@
         <v>1</v>
       </c>
       <c r="E133" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F133" s="18">
         <v>266</v>
       </c>
       <c r="G133" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="H133" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="H133" s="25" t="s">
-        <v>119</v>
-      </c>
       <c r="I133"/>
+      <c r="K133"/>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B134" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C134" s="18" t="s">
         <v>12</v>
@@ -49559,25 +49715,26 @@
         <v>1</v>
       </c>
       <c r="E134" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F134" s="18">
         <v>266</v>
       </c>
       <c r="G134" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="H134" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="H134" s="18" t="s">
-        <v>121</v>
-      </c>
       <c r="I134"/>
+      <c r="K134"/>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B135" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C135" s="18" t="s">
         <v>12</v>
@@ -49586,25 +49743,26 @@
         <v>1</v>
       </c>
       <c r="E135" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F135" s="18">
         <v>266</v>
       </c>
       <c r="G135" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="H135" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="H135" s="18" t="s">
-        <v>123</v>
-      </c>
       <c r="I135"/>
+      <c r="K135"/>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B136" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C136" s="18" t="s">
         <v>12</v>
@@ -49613,20 +49771,21 @@
         <v>1</v>
       </c>
       <c r="E136" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F136" s="18">
         <v>266</v>
       </c>
       <c r="G136" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="H136" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="H136" s="18" t="s">
-        <v>125</v>
-      </c>
       <c r="I136"/>
+      <c r="K136"/>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -49636,13 +49795,14 @@
       <c r="G137"/>
       <c r="H137"/>
       <c r="I137"/>
+      <c r="K137"/>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B138" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C138" s="18" t="s">
         <v>12</v>
@@ -49651,25 +49811,26 @@
         <v>1</v>
       </c>
       <c r="E138" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F138" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="G138" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G138" s="18" t="s">
+      <c r="H138" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="H138" s="18" t="s">
-        <v>128</v>
-      </c>
       <c r="I138"/>
+      <c r="K138"/>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B139" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C139" s="18" t="s">
         <v>12</v>
@@ -49678,25 +49839,26 @@
         <v>1</v>
       </c>
       <c r="E139" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F139" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G139" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="H139" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="H139" s="18" t="s">
-        <v>130</v>
-      </c>
       <c r="I139"/>
+      <c r="K139"/>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B140" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C140" s="18" t="s">
         <v>12</v>
@@ -49705,20 +49867,21 @@
         <v>1</v>
       </c>
       <c r="E140" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F140" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G140" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H140" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="H140" s="18" t="s">
-        <v>132</v>
-      </c>
       <c r="I140"/>
+      <c r="K140"/>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -49728,13 +49891,14 @@
       <c r="G141"/>
       <c r="H141"/>
       <c r="I141"/>
+      <c r="K141"/>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B142" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C142" s="18" t="s">
         <v>12</v>
@@ -49743,13 +49907,13 @@
         <v>1</v>
       </c>
       <c r="E142" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F142" s="18">
         <v>21496</v>
       </c>
       <c r="G142" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H142" s="18">
         <v>455000</v>
@@ -49757,12 +49921,12 @@
       <c r="I142"/>
       <c r="K142"/>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B143" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C143" s="18" t="s">
         <v>12</v>
@@ -49771,13 +49935,13 @@
         <v>1</v>
       </c>
       <c r="E143" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F143" s="18">
         <v>21496</v>
       </c>
       <c r="G143" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H143" s="18">
         <v>39.936168333333299</v>
@@ -49785,12 +49949,12 @@
       <c r="I143"/>
       <c r="K143"/>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B144" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C144" s="18" t="s">
         <v>12</v>
@@ -49799,13 +49963,13 @@
         <v>1</v>
       </c>
       <c r="E144" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F144" s="18">
         <v>21496</v>
       </c>
       <c r="G144" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H144" s="18">
         <v>-70.880300000000005</v>
@@ -49813,12 +49977,12 @@
       <c r="I144"/>
       <c r="K144"/>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B145" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C145" s="18" t="s">
         <v>12</v>
@@ -49827,13 +49991,13 @@
         <v>1</v>
       </c>
       <c r="E145" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F145" s="18">
         <v>21496</v>
       </c>
       <c r="G145" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H145" s="18">
         <v>0.45</v>
@@ -49841,12 +50005,12 @@
       <c r="I145"/>
       <c r="K145"/>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B146" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C146" s="18" t="s">
         <v>12</v>
@@ -49855,13 +50019,13 @@
         <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F146" s="18">
         <v>21496</v>
       </c>
       <c r="G146" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H146" s="18">
         <v>0.45</v>
@@ -49869,12 +50033,12 @@
       <c r="I146"/>
       <c r="K146"/>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B147" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C147" s="18" t="s">
         <v>12</v>
@@ -49883,13 +50047,13 @@
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F147" s="18">
         <v>21496</v>
       </c>
       <c r="G147" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H147" s="18">
         <v>0.45</v>
@@ -49897,12 +50061,12 @@
       <c r="I147"/>
       <c r="K147"/>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B148" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C148" s="18" t="s">
         <v>12</v>
@@ -49911,13 +50075,13 @@
         <v>1</v>
       </c>
       <c r="E148" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F148" s="18">
         <v>21496</v>
       </c>
       <c r="G148" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H148" s="18">
         <v>0.45</v>
@@ -49925,7 +50089,7 @@
       <c r="I148"/>
       <c r="K148"/>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149"/>
       <c r="B149"/>
       <c r="C149"/>
@@ -49937,12 +50101,12 @@
       <c r="I149"/>
       <c r="K149"/>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B150" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C150" s="18" t="s">
         <v>12</v>
@@ -49951,13 +50115,13 @@
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F150" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G150" s="18" t="s">
         <v>140</v>
-      </c>
-      <c r="G150" s="18" t="s">
-        <v>141</v>
       </c>
       <c r="H150" s="18">
         <v>-5715.2190000000001</v>
@@ -49965,12 +50129,12 @@
       <c r="I150"/>
       <c r="K150"/>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B151" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C151" s="18" t="s">
         <v>12</v>
@@ -49979,25 +50143,26 @@
         <v>1</v>
       </c>
       <c r="E151" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F151" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G151" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H151" s="18">
         <v>-0.60336900000000004</v>
       </c>
       <c r="I151"/>
+      <c r="K151"/>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B152" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C152" s="18" t="s">
         <v>12</v>
@@ -50006,25 +50171,26 @@
         <v>1</v>
       </c>
       <c r="E152" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F152" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G152" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H152" s="18">
         <v>16931.25</v>
       </c>
       <c r="I152"/>
+      <c r="K152"/>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B153" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C153" s="18" t="s">
         <v>12</v>
@@ -50033,25 +50199,26 @@
         <v>1</v>
       </c>
       <c r="E153" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F153" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G153" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H153" s="18">
         <v>8.0456E-2</v>
       </c>
       <c r="I153"/>
+      <c r="K153"/>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B154" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C154" s="18" t="s">
         <v>12</v>
@@ -50060,25 +50227,26 @@
         <v>1</v>
       </c>
       <c r="E154" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F154" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G154" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H154" s="18">
         <v>0</v>
       </c>
       <c r="I154"/>
+      <c r="K154"/>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B155" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C155" s="18" t="s">
         <v>12</v>
@@ -50087,25 +50255,26 @@
         <v>1</v>
       </c>
       <c r="E155" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F155" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G155" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H155" s="18">
         <v>0</v>
       </c>
       <c r="I155"/>
+      <c r="K155"/>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B156" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C156" s="18" t="s">
         <v>12</v>
@@ -50114,25 +50283,26 @@
         <v>1</v>
       </c>
       <c r="E156" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F156" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G156" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H156" s="18">
         <v>-0.47420000000000001</v>
       </c>
       <c r="I156"/>
+      <c r="K156"/>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B157" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C157" s="18" t="s">
         <v>12</v>
@@ -50141,25 +50311,26 @@
         <v>1</v>
       </c>
       <c r="E157" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F157" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G157" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H157" s="18">
         <v>1</v>
       </c>
       <c r="I157"/>
+      <c r="K157"/>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B158" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C158" s="18" t="s">
         <v>12</v>
@@ -50168,25 +50339,26 @@
         <v>1</v>
       </c>
       <c r="E158" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F158" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G158" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H158" s="18">
         <v>30.36646</v>
       </c>
       <c r="I158"/>
+      <c r="K158"/>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B159" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C159" s="18" t="s">
         <v>12</v>
@@ -50195,25 +50367,26 @@
         <v>1</v>
       </c>
       <c r="E159" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F159" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G159" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H159" s="18">
         <v>0.74353000000000002</v>
       </c>
       <c r="I159"/>
+      <c r="K159"/>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B160" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C160" s="18" t="s">
         <v>12</v>
@@ -50222,25 +50395,26 @@
         <v>1</v>
       </c>
       <c r="E160" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F160" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G160" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H160" s="18">
         <v>50.42604</v>
       </c>
       <c r="I160"/>
+      <c r="K160"/>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B161" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C161" s="18" t="s">
         <v>12</v>
@@ -50249,25 +50423,26 @@
         <v>1</v>
       </c>
       <c r="E161" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F161" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G161" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H161" s="18">
         <v>144.02260000000001</v>
       </c>
       <c r="I161"/>
+      <c r="K161"/>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B162" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C162" s="18" t="s">
         <v>12</v>
@@ -50276,25 +50451,26 @@
         <v>1</v>
       </c>
       <c r="E162" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F162" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G162" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H162" s="18">
         <v>5.8589919999999998</v>
       </c>
       <c r="I162"/>
+      <c r="K162"/>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B163" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C163" s="18" t="s">
         <v>12</v>
@@ -50303,25 +50479,26 @@
         <v>1</v>
       </c>
       <c r="E163" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F163" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G163" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H163" s="18">
         <v>-3948.355</v>
       </c>
       <c r="I163"/>
+      <c r="K163"/>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B164" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C164" s="18" t="s">
         <v>12</v>
@@ -50330,25 +50507,26 @@
         <v>1</v>
       </c>
       <c r="E164" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F164" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G164" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H164" s="18">
         <v>-10193.85</v>
       </c>
       <c r="I164"/>
+      <c r="K164"/>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B165" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C165" s="18" t="s">
         <v>12</v>
@@ -50357,25 +50535,26 @@
         <v>1</v>
       </c>
       <c r="E165" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F165" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G165" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H165" s="18">
         <v>0</v>
       </c>
       <c r="I165"/>
+      <c r="K165"/>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B166" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C166" s="18" t="s">
         <v>12</v>
@@ -50384,25 +50563,26 @@
         <v>1</v>
       </c>
       <c r="E166" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F166" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G166" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H166" s="18">
         <v>838.8</v>
       </c>
       <c r="I166"/>
+      <c r="K166"/>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B167" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C167" s="18" t="s">
         <v>12</v>
@@ -50411,20 +50591,21 @@
         <v>1</v>
       </c>
       <c r="E167" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F167" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G167" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H167" s="18">
         <v>12582.9</v>
       </c>
       <c r="I167"/>
+      <c r="K167"/>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
@@ -50434,13 +50615,14 @@
       <c r="G168"/>
       <c r="H168"/>
       <c r="I168"/>
+      <c r="K168"/>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B169" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C169" s="18" t="s">
         <v>12</v>
@@ -50449,25 +50631,26 @@
         <v>1</v>
       </c>
       <c r="E169" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F169" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G169" s="18" t="s">
         <v>160</v>
-      </c>
-      <c r="G169" s="18" t="s">
-        <v>161</v>
       </c>
       <c r="H169" s="18">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="I169"/>
+      <c r="K169"/>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B170" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C170" s="18" t="s">
         <v>12</v>
@@ -50476,25 +50659,26 @@
         <v>1</v>
       </c>
       <c r="E170" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F170" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G170" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H170" s="18">
         <v>0.87409999999999999</v>
       </c>
       <c r="I170"/>
+      <c r="K170"/>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B171" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C171" s="18" t="s">
         <v>12</v>
@@ -50503,25 +50687,26 @@
         <v>1</v>
       </c>
       <c r="E171" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F171" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G171" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H171" s="18">
         <v>-1.8972</v>
       </c>
       <c r="I171"/>
+      <c r="K171"/>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B172" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C172" s="18" t="s">
         <v>12</v>
@@ -50530,13 +50715,13 @@
         <v>1</v>
       </c>
       <c r="E172" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F172" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G172" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H172" s="18">
         <v>14.79</v>
@@ -50544,12 +50729,12 @@
       <c r="I172"/>
       <c r="K172"/>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B173" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C173" s="18" t="s">
         <v>12</v>
@@ -50558,25 +50743,26 @@
         <v>1</v>
       </c>
       <c r="E173" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F173" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G173" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H173" s="18">
         <v>19706</v>
       </c>
       <c r="I173"/>
+      <c r="K173"/>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B174" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C174" s="18" t="s">
         <v>12</v>
@@ -50585,25 +50771,26 @@
         <v>1</v>
       </c>
       <c r="E174" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F174" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G174" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H174" s="18">
         <v>34</v>
       </c>
       <c r="I174"/>
+      <c r="K174"/>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B175" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C175" s="18" t="s">
         <v>12</v>
@@ -50612,25 +50799,26 @@
         <v>1</v>
       </c>
       <c r="E175" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F175" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G175" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H175" s="18">
         <v>3073</v>
       </c>
       <c r="I175"/>
+      <c r="K175"/>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B176" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C176" s="18" t="s">
         <v>12</v>
@@ -50639,20 +50827,21 @@
         <v>1</v>
       </c>
       <c r="E176" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F176" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G176" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H176" s="18">
         <v>44327</v>
       </c>
       <c r="I176"/>
+      <c r="K176"/>
     </row>
-    <row r="177" spans="1:15">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177"/>
       <c r="B177"/>
       <c r="C177"/>
@@ -50660,23 +50849,19 @@
       <c r="E177"/>
       <c r="F177"/>
       <c r="I177"/>
+      <c r="K177"/>
     </row>
-    <row r="178" spans="1:15">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I178" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J178" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K178" s="18">
-        <v>1</v>
-      </c>
+      <c r="K178"/>
       <c r="L178"/>
-      <c r="O178" s="18" t="s">
-        <v>167</v>
-      </c>
     </row>
-    <row r="179" spans="1:15">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179"/>
       <c r="B179"/>
       <c r="C179"/>
@@ -50684,13 +50869,14 @@
       <c r="E179"/>
       <c r="F179"/>
       <c r="I179"/>
+      <c r="K179"/>
     </row>
-    <row r="180" spans="1:15">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B180" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C180" s="18" t="s">
         <v>12</v>
@@ -50698,19 +50884,23 @@
       <c r="D180" s="18">
         <v>1</v>
       </c>
+      <c r="E180" t="s">
+        <v>225</v>
+      </c>
       <c r="F180" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I180" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="K180"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="I180" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15">
-      <c r="A181" s="18" t="s">
-        <v>171</v>
-      </c>
       <c r="B181" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C181" s="18" t="s">
         <v>12</v>
@@ -50718,19 +50908,23 @@
       <c r="D181" s="18">
         <v>1</v>
       </c>
+      <c r="E181" t="s">
+        <v>226</v>
+      </c>
       <c r="F181" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I181" s="26" t="s">
-        <v>170</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="K181"/>
     </row>
-    <row r="182" spans="1:15">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B182" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C182" s="18" t="s">
         <v>12</v>
@@ -50738,14 +50932,18 @@
       <c r="D182" s="18">
         <v>1</v>
       </c>
+      <c r="E182" t="s">
+        <v>227</v>
+      </c>
       <c r="F182" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I182" s="26" t="s">
-        <v>170</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="K182"/>
     </row>
-    <row r="183" spans="1:15">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183"/>
       <c r="B183"/>
       <c r="C183"/>
@@ -50753,13 +50951,14 @@
       <c r="E183"/>
       <c r="F183" s="21"/>
       <c r="I183" s="20"/>
+      <c r="K183"/>
     </row>
-    <row r="184" spans="1:15">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B184" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C184" s="18" t="s">
         <v>12</v>
@@ -50767,19 +50966,23 @@
       <c r="D184" s="18">
         <v>1</v>
       </c>
+      <c r="E184" t="s">
+        <v>228</v>
+      </c>
       <c r="F184" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="I184" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="K184"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="I184" s="26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15">
-      <c r="A185" s="18" t="s">
-        <v>178</v>
-      </c>
       <c r="B185" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C185" s="18" t="s">
         <v>12</v>
@@ -50787,19 +50990,23 @@
       <c r="D185" s="18">
         <v>1</v>
       </c>
+      <c r="E185" t="s">
+        <v>229</v>
+      </c>
       <c r="F185" s="21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I185" s="26" t="s">
-        <v>177</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="K185"/>
     </row>
-    <row r="186" spans="1:15">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B186" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C186" s="18" t="s">
         <v>12</v>
@@ -50807,19 +51014,23 @@
       <c r="D186" s="18">
         <v>1</v>
       </c>
+      <c r="E186" t="s">
+        <v>230</v>
+      </c>
       <c r="F186" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I186" s="26" t="s">
-        <v>177</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="K186"/>
     </row>
-    <row r="187" spans="1:15">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B187" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C187" s="18" t="s">
         <v>12</v>
@@ -50827,19 +51038,23 @@
       <c r="D187" s="18">
         <v>1</v>
       </c>
+      <c r="E187" t="s">
+        <v>231</v>
+      </c>
       <c r="F187" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I187" s="26" t="s">
-        <v>177</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="K187"/>
     </row>
-    <row r="188" spans="1:15">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B188" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C188" s="18" t="s">
         <v>12</v>
@@ -50847,19 +51062,23 @@
       <c r="D188" s="18">
         <v>1</v>
       </c>
+      <c r="E188" t="s">
+        <v>232</v>
+      </c>
       <c r="F188" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I188" s="26" t="s">
-        <v>177</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="K188"/>
     </row>
-    <row r="189" spans="1:15">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B189" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C189" s="18" t="s">
         <v>12</v>
@@ -50867,12 +51086,16 @@
       <c r="D189" s="18">
         <v>1</v>
       </c>
+      <c r="E189" t="s">
+        <v>233</v>
+      </c>
       <c r="F189" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I189" s="26" t="s">
-        <v>177</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="K189"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -50891,9 +51114,9 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="27">
         <v>-0.11991300000000001</v>
       </c>
@@ -51012,7 +51235,7 @@
         <v>5.5009000000000002E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
         <v>-9.8526000000000002E-2</v>
       </c>
@@ -51131,7 +51354,7 @@
         <v>4.5428000000000003E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <v>-8.6588999999999999E-2</v>
       </c>
@@ -51250,7 +51473,7 @@
         <v>3.8071000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>-7.2242000000000001E-2</v>
       </c>
@@ -51369,7 +51592,7 @@
         <v>3.1384000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>-6.2740000000000004E-2</v>
       </c>
@@ -51488,7 +51711,7 @@
         <v>2.7227000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>-5.4844999999999998E-2</v>
       </c>
@@ -51607,7 +51830,7 @@
         <v>2.4028999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>-4.8873E-2</v>
       </c>
@@ -51726,7 +51949,7 @@
         <v>2.1144E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>-4.2028000000000003E-2</v>
       </c>
@@ -51845,7 +52068,7 @@
         <v>1.9293000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>-3.5961E-2</v>
       </c>
@@ -51964,7 +52187,7 @@
         <v>1.7278999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>-3.0572999999999999E-2</v>
       </c>
@@ -52083,7 +52306,7 @@
         <v>1.5626999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>-2.7463999999999999E-2</v>
       </c>
@@ -52202,7 +52425,7 @@
         <v>1.4156E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>-2.3244999999999998E-2</v>
       </c>
@@ -52321,7 +52544,7 @@
         <v>1.2859000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>-2.0306000000000001E-2</v>
       </c>
@@ -52440,7 +52663,7 @@
         <v>1.1712E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>-1.7679E-2</v>
       </c>
@@ -52559,7 +52782,7 @@
         <v>1.0659999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>-1.6011999999999998E-2</v>
       </c>
@@ -52678,7 +52901,7 @@
         <v>9.6769999999999998E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>-1.3558000000000001E-2</v>
       </c>
@@ -52797,7 +53020,7 @@
         <v>8.8859999999999998E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>-1.1851E-2</v>
       </c>
@@ -52916,7 +53139,7 @@
         <v>8.1600000000000006E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>-9.9930000000000001E-3</v>
       </c>
@@ -53035,7 +53258,7 @@
         <v>7.7640000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>-8.6569999999999998E-3</v>
       </c>
@@ -53154,7 +53377,7 @@
         <v>6.9020000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>-7.2129999999999998E-3</v>
       </c>
@@ -53273,7 +53496,7 @@
         <v>6.4939999999999998E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>-6.0769999999999999E-3</v>
       </c>
@@ -53392,7 +53615,7 @@
         <v>5.7790000000000003E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>-5.1770000000000002E-3</v>
       </c>
@@ -53511,7 +53734,7 @@
         <v>5.3480000000000003E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>-4.633E-3</v>
       </c>
@@ -53630,7 +53853,7 @@
         <v>4.9399999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
         <v>-3.9839999999999997E-3</v>
       </c>
@@ -53749,7 +53972,7 @@
         <v>4.5960000000000003E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="27">
         <v>-3.6749999999999999E-3</v>
       </c>
@@ -53868,7 +54091,7 @@
         <v>4.2630000000000003E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
         <v>-3.0200000000000001E-3</v>
       </c>
@@ -53987,7 +54210,7 @@
         <v>3.8539999999999998E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
         <v>-2.676E-3</v>
       </c>
@@ -54106,7 +54329,7 @@
         <v>3.7200000000000002E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="27">
         <v>-1.8220000000000001E-3</v>
       </c>
@@ -54225,7 +54448,7 @@
         <v>3.3670000000000002E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>-1.209E-3</v>
       </c>
@@ -54344,7 +54567,7 @@
         <v>3.1129999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="27">
         <v>-5.7600000000000001E-4</v>
       </c>
@@ -54463,7 +54686,7 @@
         <v>2.9559999999999999E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="27">
         <v>3.21E-4</v>
       </c>
@@ -54582,7 +54805,7 @@
         <v>2.7200000000000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="27">
         <v>7.5600000000000005E-4</v>
       </c>
@@ -54701,7 +54924,7 @@
         <v>2.5279999999999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="27">
         <v>1.637E-3</v>
       </c>
@@ -54820,7 +55043,7 @@
         <v>2.379E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="27">
         <v>2.0869999999999999E-3</v>
       </c>
@@ -54939,7 +55162,7 @@
         <v>2.2590000000000002E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" s="27">
         <v>2.454E-3</v>
       </c>
@@ -55058,7 +55281,7 @@
         <v>2.1150000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" s="27">
         <v>2.3630000000000001E-3</v>
       </c>
@@ -55177,7 +55400,7 @@
         <v>2.0690000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="27">
         <v>2.124E-3</v>
       </c>
@@ -55296,7 +55519,7 @@
         <v>2.055E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="27">
         <v>1.4580000000000001E-3</v>
       </c>
@@ -55415,7 +55638,7 @@
         <v>2.1229999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="27">
         <v>1.2080000000000001E-3</v>
       </c>
@@ -55534,7 +55757,7 @@
         <v>2.1800000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" s="27">
         <v>9.68E-4</v>
       </c>
@@ -55653,7 +55876,7 @@
         <v>2.3010000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" s="27">
         <v>6.2399999999999999E-4</v>
       </c>
@@ -55772,7 +55995,7 @@
         <v>2.467E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" s="27">
         <v>2.0600000000000002E-3</v>
       </c>
@@ -55891,7 +56114,7 @@
         <v>1.4829999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" s="27">
         <v>1.9070000000000001E-3</v>
       </c>
@@ -56010,7 +56233,7 @@
         <v>1.7420000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" s="27">
         <v>1.4580000000000001E-3</v>
       </c>
@@ -56129,7 +56352,7 @@
         <v>1.9689999999999998E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" s="27">
         <v>1.132E-3</v>
       </c>
@@ -56248,7 +56471,7 @@
         <v>2.081E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" s="27">
         <v>7.1299999999999998E-4</v>
       </c>
@@ -56367,7 +56590,7 @@
         <v>2.3400000000000001E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" s="27">
         <v>4.0700000000000003E-4</v>
       </c>
@@ -56486,7 +56709,7 @@
         <v>2.5630000000000002E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" s="27">
         <v>3.9199999999999999E-4</v>
       </c>
@@ -56605,7 +56828,7 @@
         <v>2.532E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" s="27">
         <v>4.1999999999999998E-5</v>
       </c>
@@ -56724,7 +56947,7 @@
         <v>2.676E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" s="27">
         <v>-2.4699999999999999E-4</v>
       </c>
@@ -56843,7 +57066,7 @@
         <v>2.6800000000000001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" s="27">
         <v>-1.35E-4</v>
       </c>
@@ -56962,7 +57185,7 @@
         <v>2.6410000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52" s="27">
         <v>-7.7999999999999999E-5</v>
       </c>
@@ -57081,7 +57304,7 @@
         <v>2.611E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" s="27">
         <v>-4.9899999999999999E-4</v>
       </c>
@@ -57200,7 +57423,7 @@
         <v>2.578E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" s="27">
         <v>-3.2699999999999998E-4</v>
       </c>
@@ -57319,7 +57542,7 @@
         <v>2.47E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" s="27">
         <v>-3.3799999999999998E-4</v>
       </c>
@@ -57438,7 +57661,7 @@
         <v>2.4069999999999999E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56" s="27">
         <v>-1.65E-4</v>
       </c>
@@ -57557,7 +57780,7 @@
         <v>2.2980000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57" s="27">
         <v>-3.1E-4</v>
       </c>
@@ -57676,7 +57899,7 @@
         <v>2.2049999999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58" s="27">
         <v>-4.75E-4</v>
       </c>
@@ -57795,7 +58018,7 @@
         <v>2.1059999999999998E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" s="27">
         <v>-2.5700000000000001E-4</v>
       </c>
@@ -57914,7 +58137,7 @@
         <v>2.0449999999999999E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" s="27">
         <v>-4.6700000000000002E-4</v>
       </c>
@@ -58033,7 +58256,7 @@
         <v>2.019E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61" s="27">
         <v>-6.5200000000000002E-4</v>
       </c>
@@ -58152,7 +58375,7 @@
         <v>1.885E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" s="27">
         <v>-9.8799999999999995E-4</v>
       </c>
@@ -58271,7 +58494,7 @@
         <v>1.949E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" s="27">
         <v>-1.093E-3</v>
       </c>
@@ -58390,7 +58613,7 @@
         <v>1.8500000000000001E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64" s="27">
         <v>-1.255E-3</v>
       </c>
@@ -58509,7 +58732,7 @@
         <v>1.853E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65" s="27">
         <v>-1.4009999999999999E-3</v>
       </c>
@@ -58628,7 +58851,7 @@
         <v>1.804E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66" s="27">
         <v>-1.3730000000000001E-3</v>
       </c>
@@ -58747,7 +58970,7 @@
         <v>1.8569999999999999E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67" s="27">
         <v>-2.0019999999999999E-3</v>
       </c>
@@ -58866,7 +59089,7 @@
         <v>1.933E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A68" s="27">
         <v>-1.572E-3</v>
       </c>
@@ -58985,7 +59208,7 @@
         <v>1.941E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A69" s="27">
         <v>-1.629E-3</v>
       </c>
@@ -59104,7 +59327,7 @@
         <v>1.8890000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A70" s="27">
         <v>-1.6639999999999999E-3</v>
       </c>
@@ -59223,7 +59446,7 @@
         <v>1.8890000000000001E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A71" s="27">
         <v>-1.2030000000000001E-3</v>
       </c>
@@ -59342,7 +59565,7 @@
         <v>1.8519999999999999E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A72" s="27">
         <v>-8.8500000000000004E-4</v>
       </c>
@@ -59461,7 +59684,7 @@
         <v>1.756E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A73" s="27">
         <v>-1.011E-3</v>
       </c>
@@ -59580,7 +59803,7 @@
         <v>1.8339999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A74" s="27">
         <v>-6.0000000000000002E-6</v>
       </c>
@@ -59699,7 +59922,7 @@
         <v>1.6969999999999999E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A75" s="27">
         <v>2.9300000000000002E-4</v>
       </c>
@@ -59818,7 +60041,7 @@
         <v>1.7229999999999999E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A76" s="27">
         <v>3.7300000000000001E-4</v>
       </c>
@@ -59937,7 +60160,7 @@
         <v>1.639E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A77" s="27">
         <v>7.2400000000000003E-4</v>
       </c>
@@ -60056,7 +60279,7 @@
         <v>1.524E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A78" s="27">
         <v>7.18E-4</v>
       </c>
@@ -60175,7 +60398,7 @@
         <v>1.487E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A79" s="27">
         <v>2.9700000000000001E-4</v>
       </c>
@@ -60294,7 +60517,7 @@
         <v>1.516E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A80" s="27">
         <v>2.9700000000000001E-4</v>
       </c>
@@ -60413,7 +60636,7 @@
         <v>1.6230000000000001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A81" s="27">
         <v>-8.7000000000000001E-5</v>
       </c>
@@ -60549,9 +60772,9 @@
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="27">
         <v>-2.0986000000000001E-2</v>
       </c>
@@ -60670,7 +60893,7 @@
         <v>-7.3899999999999997E-4</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
         <v>-2.8351000000000001E-2</v>
       </c>
@@ -60789,7 +61012,7 @@
         <v>-3.9979999999999998E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <v>-1.7979999999999999E-2</v>
       </c>
@@ -60908,7 +61131,7 @@
         <v>-2.7569999999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>-1.6150000000000001E-2</v>
       </c>
@@ -61027,7 +61250,7 @@
         <v>-1.977E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>-1.9116999999999999E-2</v>
       </c>
@@ -61146,7 +61369,7 @@
         <v>-3.6589999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>-1.4782E-2</v>
       </c>
@@ -61265,7 +61488,7 @@
         <v>-3.3990000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>-1.3407000000000001E-2</v>
       </c>
@@ -61384,7 +61607,7 @@
         <v>-3.1519999999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>-1.2676E-2</v>
       </c>
@@ -61503,7 +61726,7 @@
         <v>-3.5479999999999999E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>-1.3443E-2</v>
       </c>
@@ -61622,7 +61845,7 @@
         <v>-2.8579999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>-1.1816E-2</v>
       </c>
@@ -61741,7 +61964,7 @@
         <v>-2.3319999999999999E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>-1.1783E-2</v>
       </c>
@@ -61860,7 +62083,7 @@
         <v>-2.3180000000000002E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>-1.3540999999999999E-2</v>
       </c>
@@ -61979,7 +62202,7 @@
         <v>-1.421E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>-1.1705E-2</v>
       </c>
@@ -62098,7 +62321,7 @@
         <v>-1.81E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>-1.2248999999999999E-2</v>
       </c>
@@ -62217,7 +62440,7 @@
         <v>-7.9799999999999999E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>-1.2177E-2</v>
       </c>
@@ -62336,7 +62559,7 @@
         <v>-7.0500000000000001E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>-1.052E-2</v>
       </c>
@@ -62455,7 +62678,7 @@
         <v>-2.6800000000000001E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>-1.2475999999999999E-2</v>
       </c>
@@ -62574,7 +62797,7 @@
         <v>-9.5000000000000005E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>-1.2017E-2</v>
       </c>
@@ -62693,7 +62916,7 @@
         <v>8.1000000000000004E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>-1.0492E-2</v>
       </c>
@@ -62812,7 +63035,7 @@
         <v>6.2299999999999996E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>-1.1247999999999999E-2</v>
       </c>
@@ -62931,7 +63154,7 @@
         <v>7.1599999999999995E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>-1.1247999999999999E-2</v>
       </c>
@@ -63050,7 +63273,7 @@
         <v>8.3199999999999995E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>-1.0630000000000001E-2</v>
       </c>
@@ -63169,7 +63392,7 @@
         <v>1.2539999999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>-1.0588E-2</v>
       </c>
@@ -63288,7 +63511,7 @@
         <v>1.3929999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
         <v>-1.0075000000000001E-2</v>
       </c>
@@ -63407,7 +63630,7 @@
         <v>1.5950000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="27">
         <v>-1.0187E-2</v>
       </c>
@@ -63526,7 +63749,7 @@
         <v>1.8829999999999999E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
         <v>-1.0073E-2</v>
       </c>
@@ -63645,7 +63868,7 @@
         <v>1.951E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
         <v>-9.9120000000000007E-3</v>
       </c>
@@ -63764,7 +63987,7 @@
         <v>2.2079999999999999E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="27">
         <v>-1.0292000000000001E-2</v>
       </c>
@@ -63883,7 +64106,7 @@
         <v>2.4610000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>-9.4280000000000006E-3</v>
       </c>
@@ -64002,7 +64225,7 @@
         <v>2.336E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="27">
         <v>-9.6150000000000003E-3</v>
       </c>
@@ -64121,7 +64344,7 @@
         <v>2.6380000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="27">
         <v>-9.8600000000000007E-3</v>
       </c>
@@ -64240,7 +64463,7 @@
         <v>2.5490000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="27">
         <v>-9.9749999999999995E-3</v>
       </c>
@@ -64359,7 +64582,7 @@
         <v>2.5240000000000002E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="27">
         <v>-1.0067E-2</v>
       </c>
@@ -64478,7 +64701,7 @@
         <v>2.506E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="27">
         <v>-1.0455000000000001E-2</v>
       </c>
@@ -64597,7 +64820,7 @@
         <v>2.4009999999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" s="27">
         <v>-1.0122000000000001E-2</v>
       </c>
@@ -64716,7 +64939,7 @@
         <v>2.2079999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" s="27">
         <v>-1.017E-2</v>
       </c>
@@ -64835,7 +65058,7 @@
         <v>1.9729999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="27">
         <v>-1.0008E-2</v>
       </c>
@@ -64954,7 +65177,7 @@
         <v>1.8060000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="27">
         <v>-9.2739999999999993E-3</v>
       </c>
@@ -65073,7 +65296,7 @@
         <v>1.369E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="27">
         <v>-8.9499999999999996E-3</v>
       </c>
@@ -65192,7 +65415,7 @@
         <v>1.2899999999999999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" s="27">
         <v>-8.1370000000000001E-3</v>
       </c>
@@ -65311,7 +65534,7 @@
         <v>9.4300000000000004E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" s="27">
         <v>-7.4079999999999997E-3</v>
       </c>
@@ -65430,7 +65653,7 @@
         <v>7.1599999999999995E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" s="27">
         <v>-5.5189999999999996E-3</v>
       </c>
@@ -65549,7 +65772,7 @@
         <v>-7.2800000000000002E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" s="27">
         <v>-5.0390000000000001E-3</v>
       </c>
@@ -65668,7 +65891,7 @@
         <v>-1.1119999999999999E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" s="27">
         <v>-4.8729999999999997E-3</v>
       </c>
@@ -65787,7 +66010,7 @@
         <v>-1.3140000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" s="27">
         <v>-4.5490000000000001E-3</v>
       </c>
@@ -65906,7 +66129,7 @@
         <v>-1.585E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" s="27">
         <v>-4.2969999999999996E-3</v>
       </c>
@@ -66025,7 +66248,7 @@
         <v>-1.4989999999999999E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" s="27">
         <v>-4.2240000000000003E-3</v>
       </c>
@@ -66144,7 +66367,7 @@
         <v>-1.645E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" s="27">
         <v>-4.0480000000000004E-3</v>
       </c>
@@ -66263,7 +66486,7 @@
         <v>-1.6149999999999999E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" s="27">
         <v>-4.058E-3</v>
       </c>
@@ -66382,7 +66605,7 @@
         <v>-1.4729999999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" s="27">
         <v>-3.9170000000000003E-3</v>
       </c>
@@ -66501,7 +66724,7 @@
         <v>-1.3159999999999999E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" s="27">
         <v>-4.1229999999999999E-3</v>
       </c>
@@ -66620,7 +66843,7 @@
         <v>-1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52" s="27">
         <v>-4.156E-3</v>
       </c>
@@ -66739,7 +66962,7 @@
         <v>-9.9599999999999992E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" s="27">
         <v>-3.9410000000000001E-3</v>
       </c>
@@ -66858,7 +67081,7 @@
         <v>-7.9500000000000003E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" s="27">
         <v>-4.1580000000000002E-3</v>
       </c>
@@ -66977,7 +67200,7 @@
         <v>-8.1499999999999997E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" s="27">
         <v>-4.2979999999999997E-3</v>
       </c>
@@ -67096,7 +67319,7 @@
         <v>-5.4900000000000001E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56" s="27">
         <v>-3.7450000000000001E-3</v>
       </c>
@@ -67215,7 +67438,7 @@
         <v>-5.1500000000000005E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57" s="27">
         <v>-4.2050000000000004E-3</v>
       </c>
@@ -67334,7 +67557,7 @@
         <v>-4.0700000000000003E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58" s="27">
         <v>-4.1790000000000004E-3</v>
       </c>
@@ -67453,7 +67676,7 @@
         <v>-2.2100000000000001E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" s="27">
         <v>-3.7039999999999998E-3</v>
       </c>
@@ -67572,7 +67795,7 @@
         <v>-3.86E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" s="27">
         <v>-3.6770000000000001E-3</v>
       </c>
@@ -67691,7 +67914,7 @@
         <v>-2.41E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61" s="27">
         <v>-3.454E-3</v>
       </c>
@@ -67810,7 +68033,7 @@
         <v>-1.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" s="27">
         <v>-3.4099999999999998E-3</v>
       </c>
@@ -67929,7 +68152,7 @@
         <v>-3.0299999999999999E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" s="27">
         <v>-3.8370000000000001E-3</v>
       </c>
@@ -68048,7 +68271,7 @@
         <v>-2.12E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64" s="27">
         <v>-3.4559999999999999E-3</v>
       </c>
@@ -68167,7 +68390,7 @@
         <v>-7.4999999999999993E-5</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65" s="27">
         <v>-3.2320000000000001E-3</v>
       </c>
@@ -68286,7 +68509,7 @@
         <v>-2.7700000000000001E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66" s="27">
         <v>-3.9529999999999999E-3</v>
       </c>
@@ -68405,7 +68628,7 @@
         <v>-6.9999999999999994E-5</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67" s="27">
         <v>-2.8389999999999999E-3</v>
       </c>
@@ -68524,7 +68747,7 @@
         <v>-5.5000000000000002E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A68" s="27">
         <v>-4.1570000000000001E-3</v>
       </c>
@@ -68643,7 +68866,7 @@
         <v>-1.93E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A69" s="27">
         <v>-3.826E-3</v>
       </c>
@@ -68762,7 +68985,7 @@
         <v>6.8999999999999997E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A70" s="27">
         <v>-3.2529999999999998E-3</v>
       </c>
@@ -68881,7 +69104,7 @@
         <v>1.5999999999999999E-5</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A71" s="27">
         <v>-4.3400000000000001E-3</v>
       </c>
@@ -69000,7 +69223,7 @@
         <v>-1.63E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A72" s="27">
         <v>-3.588E-3</v>
       </c>
@@ -69119,7 +69342,7 @@
         <v>-2.5000000000000001E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A73" s="27">
         <v>-3.6960000000000001E-3</v>
       </c>
@@ -69238,7 +69461,7 @@
         <v>-1.2999999999999999E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A74" s="27">
         <v>-4.4759999999999999E-3</v>
       </c>
@@ -69357,7 +69580,7 @@
         <v>-1.37E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A75" s="27">
         <v>-3.4030000000000002E-3</v>
       </c>
@@ -69476,7 +69699,7 @@
         <v>-1.4899999999999999E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A76" s="27">
         <v>-3.5409999999999999E-3</v>
       </c>
@@ -69595,7 +69818,7 @@
         <v>-3.59E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A77" s="27">
         <v>-4.2339999999999999E-3</v>
       </c>
@@ -69714,7 +69937,7 @@
         <v>-4.9299999999999995E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A78" s="27">
         <v>-3.009E-3</v>
       </c>
@@ -69833,7 +70056,7 @@
         <v>-4.6299999999999998E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A79" s="27">
         <v>-3.7109999999999999E-3</v>
       </c>
@@ -69952,7 +70175,7 @@
         <v>-6.8900000000000005E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A80" s="27">
         <v>-3.1809999999999998E-3</v>
       </c>
@@ -70071,7 +70294,7 @@
         <v>-6.4499999999999996E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A81" s="27">
         <v>-3.0999999999999999E-3</v>
       </c>
@@ -70207,9 +70430,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-0.145675</v>
       </c>
@@ -70322,7 +70545,7 @@
         <v>5.4542E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-0.130657</v>
       </c>
@@ -70435,7 +70658,7 @@
         <v>4.7778000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-0.115754</v>
       </c>
@@ -70548,7 +70771,7 @@
         <v>4.0448999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-0.100815</v>
       </c>
@@ -70661,7 +70884,7 @@
         <v>3.3852E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-8.8646000000000003E-2</v>
       </c>
@@ -70774,7 +70997,7 @@
         <v>2.8851999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-7.9889000000000002E-2</v>
       </c>
@@ -70887,7 +71110,7 @@
         <v>2.4933E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-7.1902999999999995E-2</v>
       </c>
@@ -71000,7 +71223,7 @@
         <v>2.2582000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-6.6123000000000001E-2</v>
       </c>
@@ -71113,7 +71336,7 @@
         <v>1.9682000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-6.0377E-2</v>
       </c>
@@ -71226,7 +71449,7 @@
         <v>1.7780000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-5.6017999999999998E-2</v>
       </c>
@@ -71339,7 +71562,7 @@
         <v>1.6194E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-5.1732E-2</v>
       </c>
@@ -71452,7 +71675,7 @@
         <v>1.4678999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-4.8288999999999999E-2</v>
       </c>
@@ -71565,7 +71788,7 @@
         <v>1.3211000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-4.5342E-2</v>
       </c>
@@ -71678,7 +71901,7 @@
         <v>1.2076E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-4.2567000000000001E-2</v>
       </c>
@@ -71791,7 +72014,7 @@
         <v>1.1247E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-3.9925000000000002E-2</v>
       </c>
@@ -71904,7 +72127,7 @@
         <v>1.0564E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-3.7734999999999998E-2</v>
       </c>
@@ -72017,7 +72240,7 @@
         <v>9.7800000000000005E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-3.56E-2</v>
       </c>
@@ -72130,7 +72353,7 @@
         <v>9.2999999999999992E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-3.3663999999999999E-2</v>
       </c>
@@ -72243,7 +72466,7 @@
         <v>8.6739999999999994E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-3.2195000000000001E-2</v>
       </c>
@@ -72356,7 +72579,7 @@
         <v>8.2269999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-3.0342999999999998E-2</v>
       </c>
@@ -72469,7 +72692,7 @@
         <v>7.9539999999999993E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-2.9100999999999998E-2</v>
       </c>
@@ -72582,7 +72805,7 @@
         <v>7.6150000000000002E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-2.7865000000000001E-2</v>
       </c>
@@ -72695,7 +72918,7 @@
         <v>7.2290000000000002E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-2.6776999999999999E-2</v>
       </c>
@@ -72808,7 +73031,7 @@
         <v>7.0159999999999997E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-2.5568E-2</v>
       </c>
@@ -72921,7 +73144,7 @@
         <v>6.7219999999999997E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-2.4444E-2</v>
       </c>
@@ -73034,7 +73257,7 @@
         <v>6.4669999999999997E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-2.3789000000000001E-2</v>
       </c>
@@ -73147,7 +73370,7 @@
         <v>6.3119999999999999E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-2.2741000000000001E-2</v>
       </c>
@@ -73260,7 +73483,7 @@
         <v>6.0819999999999997E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-2.1933999999999999E-2</v>
       </c>
@@ -73373,7 +73596,7 @@
         <v>5.8269999999999997E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-2.1519E-2</v>
       </c>
@@ -73486,7 +73709,7 @@
         <v>5.7869999999999996E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-2.068E-2</v>
       </c>
@@ -73599,7 +73822,7 @@
         <v>5.568E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-2.0022000000000002E-2</v>
       </c>
@@ -73712,7 +73935,7 @@
         <v>5.4380000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-1.9657999999999998E-2</v>
       </c>
@@ -73825,7 +74048,7 @@
         <v>5.3489999999999996E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-1.8799E-2</v>
       </c>
@@ -73938,7 +74161,7 @@
         <v>5.2069999999999998E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-1.8436000000000001E-2</v>
       </c>
@@ -74051,7 +74274,7 @@
         <v>5.0670000000000003E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-1.7961000000000001E-2</v>
       </c>
@@ -74164,7 +74387,7 @@
         <v>4.9760000000000004E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-1.7555999999999999E-2</v>
       </c>
@@ -74277,7 +74500,7 @@
         <v>4.8469999999999997E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-1.7596000000000001E-2</v>
       </c>
@@ -74390,7 +74613,7 @@
         <v>4.7489999999999997E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-1.7416999999999998E-2</v>
       </c>
@@ -74503,7 +74726,7 @@
         <v>4.6579999999999998E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-1.7052000000000001E-2</v>
       </c>
@@ -74616,7 +74839,7 @@
         <v>4.4619999999999998E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-1.6951999999999998E-2</v>
       </c>
@@ -74729,7 +74952,7 @@
         <v>4.3400000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-1.6695999999999999E-2</v>
       </c>
@@ -74842,7 +75065,7 @@
         <v>4.241E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-1.6542000000000001E-2</v>
       </c>
@@ -74955,7 +75178,7 @@
         <v>4.0569999999999998E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-1.6546999999999999E-2</v>
       </c>
@@ -75068,7 +75291,7 @@
         <v>3.9560000000000003E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-1.6011000000000001E-2</v>
       </c>
@@ -75181,7 +75404,7 @@
         <v>3.3040000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-1.5647999999999999E-2</v>
       </c>
@@ -75294,7 +75517,7 @@
         <v>3.2659999999999998E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-1.5452E-2</v>
       </c>
@@ -75407,7 +75630,7 @@
         <v>3.192E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-1.5183E-2</v>
       </c>
@@ -75520,7 +75743,7 @@
         <v>3.2239999999999999E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-1.5173000000000001E-2</v>
       </c>
@@ -75633,7 +75856,7 @@
         <v>3.1819999999999999E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-1.5108999999999999E-2</v>
       </c>
@@ -75746,7 +75969,7 @@
         <v>3.166E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-1.4959999999999999E-2</v>
       </c>
@@ -75859,7 +76082,7 @@
         <v>3.1960000000000001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-1.4755000000000001E-2</v>
       </c>
@@ -75972,7 +76195,7 @@
         <v>3.209E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-1.4585000000000001E-2</v>
       </c>
@@ -76085,7 +76308,7 @@
         <v>3.1960000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-1.4487E-2</v>
       </c>
@@ -76198,7 +76421,7 @@
         <v>3.2070000000000002E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-1.4315E-2</v>
       </c>
@@ -76311,7 +76534,7 @@
         <v>3.1949999999999999E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-1.4038999999999999E-2</v>
       </c>
@@ -76424,7 +76647,7 @@
         <v>3.1840000000000002E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-1.3984999999999999E-2</v>
       </c>
@@ -76537,7 +76760,7 @@
         <v>3.2209999999999999E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-1.3887E-2</v>
       </c>
@@ -76650,7 +76873,7 @@
         <v>3.199E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-1.3735000000000001E-2</v>
       </c>
@@ -76763,7 +76986,7 @@
         <v>3.1849999999999999E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-1.3665999999999999E-2</v>
       </c>
@@ -76876,7 +77099,7 @@
         <v>3.1779999999999998E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-1.3381000000000001E-2</v>
       </c>
@@ -76989,7 +77212,7 @@
         <v>3.1410000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-1.319E-2</v>
       </c>
@@ -77102,7 +77325,7 @@
         <v>3.107E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-1.3225000000000001E-2</v>
       </c>
@@ -77215,7 +77438,7 @@
         <v>3.156E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-1.3143999999999999E-2</v>
       </c>
@@ -77328,7 +77551,7 @@
         <v>3.0720000000000001E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-1.3091E-2</v>
       </c>
@@ -77441,7 +77664,7 @@
         <v>2.9759999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-1.3014E-2</v>
       </c>
@@ -77554,7 +77777,7 @@
         <v>2.9229999999999998E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-1.2546E-2</v>
       </c>
@@ -77667,7 +77890,7 @@
         <v>2.7759999999999998E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-1.2415000000000001E-2</v>
       </c>
@@ -77780,7 +78003,7 @@
         <v>2.6840000000000002E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-1.2383999999999999E-2</v>
       </c>
@@ -77893,7 +78116,7 @@
         <v>2.5249999999999999E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-1.1918E-2</v>
       </c>
@@ -78006,7 +78229,7 @@
         <v>2.3739999999999998E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-1.2E-2</v>
       </c>
@@ -78119,7 +78342,7 @@
         <v>2.271E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-1.1723000000000001E-2</v>
       </c>
@@ -78232,7 +78455,7 @@
         <v>2.2569999999999999E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-1.1882E-2</v>
       </c>
@@ -78345,7 +78568,7 @@
         <v>2.2309999999999999E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-1.2068000000000001E-2</v>
       </c>
@@ -78458,7 +78681,7 @@
         <v>2.2889999999999998E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-1.1988E-2</v>
       </c>
@@ -78571,7 +78794,7 @@
         <v>2.2989999999999998E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:37">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-1.2009000000000001E-2</v>
       </c>
@@ -78684,7 +78907,7 @@
         <v>2.369E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:37">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-1.2146000000000001E-2</v>
       </c>
@@ -78797,7 +79020,7 @@
         <v>2.3649999999999999E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-1.1953E-2</v>
       </c>
@@ -78910,7 +79133,7 @@
         <v>2.3319999999999999E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:37">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-1.108E-2</v>
       </c>
@@ -79040,9 +79263,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-2.7317000000000001E-2</v>
       </c>
@@ -79155,7 +79378,7 @@
         <v>1.3200000000000001E-4</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-3.0619E-2</v>
       </c>
@@ -79268,7 +79491,7 @@
         <v>2.2560000000000002E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-3.3050999999999997E-2</v>
       </c>
@@ -79381,7 +79604,7 @@
         <v>2.8879999999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-3.3812000000000002E-2</v>
       </c>
@@ -79494,7 +79717,7 @@
         <v>3.2320000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-3.4154999999999998E-2</v>
       </c>
@@ -79607,7 +79830,7 @@
         <v>3.5040000000000002E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-3.4064999999999998E-2</v>
       </c>
@@ -79720,7 +79943,7 @@
         <v>3.9950000000000003E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-3.2948999999999999E-2</v>
       </c>
@@ -79833,7 +80056,7 @@
         <v>3.9090000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-3.2072999999999997E-2</v>
       </c>
@@ -79946,7 +80169,7 @@
         <v>4.2269999999999999E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-3.0110999999999999E-2</v>
       </c>
@@ -80059,7 +80282,7 @@
         <v>3.725E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-2.8944999999999999E-2</v>
       </c>
@@ -80172,7 +80395,7 @@
         <v>3.3630000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-2.8615999999999999E-2</v>
       </c>
@@ -80285,7 +80508,7 @@
         <v>2.8670000000000002E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-2.6876000000000001E-2</v>
       </c>
@@ -80398,7 +80621,7 @@
         <v>2.2390000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-2.6034999999999999E-2</v>
       </c>
@@ -80511,7 +80734,7 @@
         <v>1.6299999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-2.5440000000000001E-2</v>
       </c>
@@ -80624,7 +80847,7 @@
         <v>1.0759999999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-2.4031E-2</v>
       </c>
@@ -80737,7 +80960,7 @@
         <v>6.5200000000000002E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-2.3178000000000001E-2</v>
       </c>
@@ -80850,7 +81073,7 @@
         <v>1.1900000000000001E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-2.2393E-2</v>
       </c>
@@ -80963,7 +81186,7 @@
         <v>-3.2699999999999998E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-2.0965000000000001E-2</v>
       </c>
@@ -81076,7 +81299,7 @@
         <v>-8.12E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-2.0671999999999999E-2</v>
       </c>
@@ -81189,7 +81412,7 @@
         <v>-1.2019999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-1.9761999999999998E-2</v>
       </c>
@@ -81302,7 +81525,7 @@
         <v>-1.624E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-1.8526999999999998E-2</v>
       </c>
@@ -81415,7 +81638,7 @@
         <v>-1.5479999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-1.8440999999999999E-2</v>
       </c>
@@ -81528,7 +81751,7 @@
         <v>-2.1589999999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-1.7509E-2</v>
       </c>
@@ -81641,7 +81864,7 @@
         <v>-2.3709999999999998E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-1.6910999999999999E-2</v>
       </c>
@@ -81754,7 +81977,7 @@
         <v>-2.6250000000000002E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-1.6808E-2</v>
       </c>
@@ -81867,7 +82090,7 @@
         <v>-2.8779999999999999E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-1.5876999999999999E-2</v>
       </c>
@@ -81980,7 +82203,7 @@
         <v>-2.9299999999999999E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-1.5462E-2</v>
       </c>
@@ -82093,7 +82316,7 @@
         <v>-3.186E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-1.5289000000000001E-2</v>
       </c>
@@ -82206,7 +82429,7 @@
         <v>-3.4480000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-1.4227E-2</v>
       </c>
@@ -82319,7 +82542,7 @@
         <v>-3.454E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-1.4125E-2</v>
       </c>
@@ -82432,7 +82655,7 @@
         <v>-3.6610000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-1.3469999999999999E-2</v>
       </c>
@@ -82545,7 +82768,7 @@
         <v>-3.8159999999999999E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-1.2668E-2</v>
       </c>
@@ -82658,7 +82881,7 @@
         <v>-3.8709999999999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-1.2735E-2</v>
       </c>
@@ -82771,7 +82994,7 @@
         <v>-4.045E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-1.1991E-2</v>
       </c>
@@ -82884,7 +83107,7 @@
         <v>-4.1209999999999997E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-1.1464E-2</v>
       </c>
@@ -82997,7 +83220,7 @@
         <v>-4.1489999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-1.1486E-2</v>
       </c>
@@ -83110,7 +83333,7 @@
         <v>-4.2820000000000002E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-1.0444E-2</v>
       </c>
@@ -83223,7 +83446,7 @@
         <v>-4.3299999999999996E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-1.0144E-2</v>
       </c>
@@ -83336,7 +83559,7 @@
         <v>-4.4010000000000004E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-9.9839999999999998E-3</v>
       </c>
@@ -83449,7 +83672,7 @@
         <v>-4.4530000000000004E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-9.6249999999999999E-3</v>
       </c>
@@ -83562,7 +83785,7 @@
         <v>-4.6709999999999998E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-9.2840000000000006E-3</v>
       </c>
@@ -83675,7 +83898,7 @@
         <v>-4.8570000000000002E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-9.2090000000000002E-3</v>
       </c>
@@ -83788,7 +84011,7 @@
         <v>-4.9490000000000003E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-8.6449999999999999E-3</v>
       </c>
@@ -83901,7 +84124,7 @@
         <v>-5.084E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-8.4910000000000003E-3</v>
       </c>
@@ -84014,7 +84237,7 @@
         <v>-5.6519999999999999E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-8.2439999999999996E-3</v>
       </c>
@@ -84127,7 +84350,7 @@
         <v>-5.8250000000000003E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-8.0960000000000008E-3</v>
       </c>
@@ -84240,7 +84463,7 @@
         <v>-5.9290000000000002E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-7.7980000000000002E-3</v>
       </c>
@@ -84353,7 +84576,7 @@
         <v>-6.0029999999999997E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-7.4570000000000001E-3</v>
       </c>
@@ -84466,7 +84689,7 @@
         <v>-6.1250000000000002E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-7.3629999999999998E-3</v>
       </c>
@@ -84579,7 +84802,7 @@
         <v>-6.1760000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-6.8349999999999999E-3</v>
       </c>
@@ -84692,7 +84915,7 @@
         <v>-6.3049999999999998E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-6.8510000000000003E-3</v>
       </c>
@@ -84805,7 +85028,7 @@
         <v>-6.3720000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-6.6629999999999997E-3</v>
       </c>
@@ -84918,7 +85141,7 @@
         <v>-6.3460000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-6.3930000000000002E-3</v>
       </c>
@@ -85031,7 +85254,7 @@
         <v>-6.3930000000000002E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-6.2459999999999998E-3</v>
       </c>
@@ -85144,7 +85367,7 @@
         <v>-6.4250000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-6.0879999999999997E-3</v>
       </c>
@@ -85257,7 +85480,7 @@
         <v>-6.4479999999999997E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-5.8599999999999998E-3</v>
       </c>
@@ -85370,7 +85593,7 @@
         <v>-6.4120000000000002E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-5.6220000000000003E-3</v>
       </c>
@@ -85483,7 +85706,7 @@
         <v>-6.4450000000000002E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-5.6350000000000003E-3</v>
       </c>
@@ -85596,7 +85819,7 @@
         <v>-6.4409999999999997E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-5.3249999999999999E-3</v>
       </c>
@@ -85709,7 +85932,7 @@
         <v>-6.326E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-5.1650000000000003E-3</v>
       </c>
@@ -85822,7 +86045,7 @@
         <v>-6.404E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-5.1729999999999996E-3</v>
       </c>
@@ -85935,7 +86158,7 @@
         <v>-6.365E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-5.1529999999999996E-3</v>
       </c>
@@ -86048,7 +86271,7 @@
         <v>-6.2170000000000003E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-4.7650000000000001E-3</v>
       </c>
@@ -86161,7 +86384,7 @@
         <v>-6.2630000000000003E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-5.0200000000000002E-3</v>
       </c>
@@ -86274,7 +86497,7 @@
         <v>-6.1180000000000002E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-4.5360000000000001E-3</v>
       </c>
@@ -86387,7 +86610,7 @@
         <v>-6.0829999999999999E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-4.7460000000000002E-3</v>
       </c>
@@ -86500,7 +86723,7 @@
         <v>-6.1869999999999998E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-4.7699999999999999E-3</v>
       </c>
@@ -86613,7 +86836,7 @@
         <v>-5.953E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-4.2249999999999996E-3</v>
       </c>
@@ -86726,7 +86949,7 @@
         <v>-6.0990000000000003E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-4.0289999999999996E-3</v>
       </c>
@@ -86839,7 +87062,7 @@
         <v>-6.2599999999999999E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-3.8709999999999999E-3</v>
       </c>
@@ -86952,7 +87175,7 @@
         <v>-6.1580000000000003E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-3.5130000000000001E-3</v>
       </c>
@@ -87065,7 +87288,7 @@
         <v>-6.4400000000000004E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-3.5179999999999999E-3</v>
       </c>
@@ -87178,7 +87401,7 @@
         <v>-6.4609999999999997E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-3.5839999999999999E-3</v>
       </c>
@@ -87291,7 +87514,7 @@
         <v>-6.4869999999999997E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-3.1909999999999998E-3</v>
       </c>
@@ -87404,7 +87627,7 @@
         <v>-6.6490000000000004E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:37">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-3.0850000000000001E-3</v>
       </c>
@@ -87517,7 +87740,7 @@
         <v>-6.5729999999999998E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:37">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-3.088E-3</v>
       </c>
@@ -87630,7 +87853,7 @@
         <v>-6.6449999999999999E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-3.1380000000000002E-3</v>
       </c>
@@ -87743,7 +87966,7 @@
         <v>-6.6940000000000003E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:37">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-3.418E-3</v>
       </c>
